--- a/task1.xlsx
+++ b/task1.xlsx
@@ -1,26 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\task\task1DA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2CB62-3302-4961-B37B-79907193D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>for constant we use doller</t>
+  </si>
+  <si>
+    <t>j11+(j12*$j$7)</t>
+  </si>
+  <si>
+    <t>Brand_id</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>headphone</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>total_after_tax</t>
+  </si>
+  <si>
+    <t>Rank_avg</t>
+  </si>
+  <si>
+    <t>Rank_Eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank </t>
+  </si>
+  <si>
+    <t>Countif</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (to remove duplicate number)</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>SAMSUNG2</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +141,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +224,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +566,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="13.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8">
+        <v>40</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>40</v>
+      </c>
+      <c r="I6" s="8">
+        <v>50</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f>F6+G6+H6+I6</f>
+        <v>150</v>
+      </c>
+      <c r="L6" s="9">
+        <f>K6+K6*$K$2</f>
+        <v>157.5</v>
+      </c>
+      <c r="M6" s="9">
+        <f>_xlfn.RANK.AVG(L6,L6:L12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="9">
+        <f>_xlfn.RANK.EQ(L6,L$6:L$12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="10">
+        <f>RANK(L6,L6:L12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="11">
+        <f>COUNTIF($O$6:O6,O6)+O6-1</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>_xlfn.RANK.EQ(L6,$L$6:$L$12,1)+COUNTIF($L$6:L6,L6)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8">
+        <v>150</v>
+      </c>
+      <c r="H7" s="8">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45</v>
+      </c>
+      <c r="J7" s="8">
+        <v>55</v>
+      </c>
+      <c r="K7" s="6">
+        <f>F7+G7+H7+I7</f>
+        <v>325</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" ref="L7:L12" si="0">K7+K7*$K$2</f>
+        <v>341.25</v>
+      </c>
+      <c r="M7" s="9">
+        <f>_xlfn.RANK.AVG(L7,L$6:L$12,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N7" s="9">
+        <f>_xlfn.RANK.EQ(L7,L$6:L$12,1)+COUNTIF(L$6:L15,L$6)</f>
+        <v>6</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" ref="O7:O12" si="1">RANK(L7,L$6:L$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="P7" s="11">
+        <f>COUNTIF($O$6:O7,O7)+O7-1</f>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>_xlfn.RANK.EQ(L7,$L$6:$L$12,1)+COUNTIF($L$6:L7,L7)-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8">
+        <v>150</v>
+      </c>
+      <c r="H8" s="8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8">
+        <v>55</v>
+      </c>
+      <c r="K8" s="6">
+        <f>F8+G8+H8+I8</f>
+        <v>325</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>341.25</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" ref="M8:M12" si="2">_xlfn.RANK.AVG(L8,L$6:L$12,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N8" s="9">
+        <f>_xlfn.RANK.EQ(L8,L$6:L$12,1)+COUNTIF(L$6:L16,L$6)</f>
+        <v>6</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="11">
+        <f>COUNTIF($O$6:O8,O8)+O8-1</f>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>_xlfn.RANK.EQ(L8,$L$6:$L$12,1)+COUNTIF($L$6:L8,L8)-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>190</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>55</v>
+      </c>
+      <c r="J9" s="8">
+        <v>200</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:K11" si="3">F9+G9+H9+I9</f>
+        <v>245</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>257.25</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="9">
+        <f>_xlfn.RANK.EQ(L9,L$6:L$12,1)+COUNTIF(L$6:L17,L$6)</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P9" s="11">
+        <f>COUNTIF($O$6:O9,O9)+O9-1</f>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>_xlfn.RANK.EQ(L9,$L$6:$L$12,1)+COUNTIF($L$6:L9,L9)-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8">
+        <v>250</v>
+      </c>
+      <c r="G10" s="8">
+        <v>67</v>
+      </c>
+      <c r="H10" s="8">
+        <v>45</v>
+      </c>
+      <c r="I10" s="8">
+        <v>89</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>473.55</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="9">
+        <f>_xlfn.RANK.EQ(L10,L$6:L$12,1)+COUNTIF(L$6:L17,L$6)</f>
+        <v>8</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P10" s="11">
+        <f>COUNTIF($O$6:O10,O10)+O10-1</f>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>_xlfn.RANK.EQ(L10,$L$6:$L$12,1)+COUNTIF($L$6:L10,L10)-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <f>_xlfn.RANK.EQ(L11,L$6:L$12,1)+COUNTIF(L$6:L19,L$6)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <f>COUNTIF($O$6:O11,O11)+O11-1</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>_xlfn.RANK.EQ(L11,$L$6:$L$12,1)+COUNTIF($L$6:L11,L11)-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="9">
+        <f>_xlfn.RANK.EQ(L12,L$6:L$12,1)+COUNTIF(L$6:L20,L$6)</f>
+        <v>3</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="11">
+        <f>COUNTIF($O$6:O12,O12)+O12-1</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>_xlfn.RANK.EQ(L12,$L$6:$L$12,1)+COUNTIF($L$6:L12,L12)-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>3</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8">
+        <f>F6*F13</f>
+        <v>160</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:J14" si="4">G6*G13</f>
+        <v>60</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="4:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="4:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="6">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="14">
+        <f>MIN(F6:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" ref="G16:L16" si="5">MIN(G6:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="5"/>
+        <v>15.75</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="14">
+        <f>MAX(F6:F14)</f>
+        <v>250</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:L17" si="6">MAX(G6:G14)</f>
+        <v>190</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="6"/>
+        <v>451</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="6"/>
+        <v>473.55</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="K19" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.76708635202568842</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>0.76924799647492947</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="T21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/task1.xlsx
+++ b/task1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\task\task1DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2CB62-3302-4961-B37B-79907193D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7E32D-6A0A-4537-9B76-97F7B940D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>tax</t>
-  </si>
-  <si>
-    <t>for constant we use doller</t>
-  </si>
-  <si>
-    <t>j11+(j12*$j$7)</t>
   </si>
   <si>
     <t>Brand_id</t>
@@ -148,18 +142,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -243,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,40 +239,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +555,7 @@
   <dimension ref="D2:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,436 +582,441 @@
       <c r="K2" s="2">
         <v>0.05</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="O3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="R5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="5" t="s">
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>40</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>20</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>50</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <f>F6+G6+H6+I6</f>
         <v>150</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f>K6+K6*$K$2</f>
         <v>157.5</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f>_xlfn.RANK.AVG(L6,L6:L12,1)</f>
         <v>3</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f>_xlfn.RANK.EQ(L6,L$6:L$12,1)</f>
         <v>3</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <f>RANK(L6,L6:L12,1)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <f>COUNTIF($O$6:O6,O6)+O6-1</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$12,1)+COUNTIF($L$6:L6,L6)-1</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>150</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>30</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>45</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>55</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f>F7+G7+H7+I7</f>
         <v>325</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f t="shared" ref="L7:L12" si="0">K7+K7*$K$2</f>
         <v>341.25</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f>_xlfn.RANK.AVG(L7,L$6:L$12,1)</f>
         <v>5.5</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f>_xlfn.RANK.EQ(L7,L$6:L$12,1)+COUNTIF(L$6:L15,L$6)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <f t="shared" ref="O7:O12" si="1">RANK(L7,L$6:L$15,1)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <f>COUNTIF($O$6:O7,O7)+O7-1</f>
         <v>5</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f>_xlfn.RANK.EQ(L7,$L$6:$L$12,1)+COUNTIF($L$6:L7,L7)-1</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>150</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>30</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>45</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>55</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f>F8+G8+H8+I8</f>
         <v>325</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>341.25</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <f t="shared" ref="M8:M12" si="2">_xlfn.RANK.AVG(L8,L$6:L$12,1)</f>
         <v>5.5</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <f>_xlfn.RANK.EQ(L8,L$6:L$12,1)+COUNTIF(L$6:L16,L$6)</f>
         <v>6</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <f>COUNTIF($O$6:O8,O8)+O8-1</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <f>_xlfn.RANK.EQ(L8,$L$6:$L$12,1)+COUNTIF($L$6:L8,L8)-1</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>190</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>55</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>200</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" ref="K9:K11" si="3">F9+G9+H9+I9</f>
         <v>245</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>257.25</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f>_xlfn.RANK.EQ(L9,L$6:L$12,1)+COUNTIF(L$6:L17,L$6)</f>
         <v>5</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f>COUNTIF($O$6:O9,O9)+O9-1</f>
         <v>4</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f>_xlfn.RANK.EQ(L9,$L$6:$L$12,1)+COUNTIF($L$6:L9,L9)-1</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7">
         <v>250</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>67</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>45</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>89</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>473.55</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f>_xlfn.RANK.EQ(L10,L$6:L$12,1)+COUNTIF(L$6:L17,L$6)</f>
         <v>8</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <f>COUNTIF($O$6:O10,O10)+O10-1</f>
         <v>7</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <f>_xlfn.RANK.EQ(L10,$L$6:$L$12,1)+COUNTIF($L$6:L10,L10)-1</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7">
         <v>10</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f>_xlfn.RANK.EQ(L11,L$6:L$12,1)+COUNTIF(L$6:L19,L$6)</f>
         <v>2</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <f>COUNTIF($O$6:O11,O11)+O11-1</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f>_xlfn.RANK.EQ(L11,$L$6:$L$12,1)+COUNTIF($L$6:L11,L11)-1</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>20</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>32</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f>_xlfn.RANK.EQ(L12,L$6:L$12,1)+COUNTIF(L$6:L20,L$6)</f>
         <v>3</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <f>COUNTIF($O$6:O12,O12)+O12-1</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f>_xlfn.RANK.EQ(L12,$L$6:$L$12,1)+COUNTIF($L$6:L12,L12)-1</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>2</v>
       </c>
       <c r="K13"/>
@@ -1037,25 +1027,25 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8">
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7">
         <f>F6*F13</f>
         <v>160</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" ref="G14:J14" si="4">G6*G13</f>
         <v>60</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1067,81 +1057,81 @@
       <c r="Q14"/>
     </row>
     <row r="15" spans="4:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="13" t="s">
-        <v>26</v>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="O15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="4:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>8</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13">
         <f>MIN(F6:F14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <f t="shared" ref="G16:L16" si="5">MIN(G6:G14)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <f t="shared" si="5"/>
         <v>15.75</v>
       </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>9</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="E17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13">
         <f>MAX(F6:F14)</f>
         <v>250</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f t="shared" ref="G17:L17" si="6">MAX(G6:G14)</f>
         <v>190</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f t="shared" si="6"/>
         <v>451</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <f t="shared" si="6"/>
         <v>473.55</v>
       </c>
@@ -1149,7 +1139,7 @@
     <row r="19" spans="4:20" x14ac:dyDescent="0.3">
       <c r="K19" s="1">
         <f ca="1">RAND()</f>
-        <v>0.76708635202568842</v>
+        <v>0.47252995751085436</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.3">
@@ -1157,12 +1147,12 @@
         <v>0.76924799647492947</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="T21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
